--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -5,59 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Progress" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Description" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Percentage of specialist homelessness services clients with needs met for accomodation and other services; and experiencing family and domestic violence, and young people (15-24 years old) presenting alone</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="superscript"/>
-        <sz val="13.45"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2012-13 to 2014-15 </t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Percentage of specialist homelessness services clients with needs met for accommodation and other services; and experiencing family and domestic violence, and young people (15-24 years old) presenting alone 2012-13 to 2016-17 </t>
   </si>
   <si>
     <t xml:space="preserve">NSW</t>
@@ -114,10 +81,13 @@
     <t xml:space="preserve">2015-16</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 30a. National Partnership Agreement on Homelessness 2015-17 outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part 1 of project plans submitted to the Commonwealth (1 July 2015) </t>
+    <t xml:space="preserve">2016-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-18 Transitional National Partnership Agreement on Homelessness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project plans submitted to the Commonwealth (1 July 2017)</t>
   </si>
   <si>
     <t xml:space="preserve">Completed </t>
@@ -126,13 +96,13 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Part 2 of project plans submitted to the Commonwealth (1 September 2015) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Commonwealth on assessment of progress against project plans, and provide assurance funding has been matched (1 September 2016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 25 per cent of total matched funding directed to addressing priority outputs</t>
+    <t xml:space="preserve">Updates on changes to service providers and rationale for change under the NPAH (15th of each month if required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final update to the Commonwealth (in accordance with clauses 31 and 41) (1 September 2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress</t>
   </si>
   <si>
     <t xml:space="preserve">Measure</t>
@@ -145,7 +115,7 @@
     <t xml:space="preserve">Short title</t>
   </si>
   <si>
-    <t xml:space="preserve">(Homelessness) Accomodation and services needs met</t>
+    <t xml:space="preserve">(Homelessness) Accommodation and services needs met</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -160,13 +130,13 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Under the NPAH 2015-17, more than 775 homelessness services are being delivered across Australia through over 220 homelessness initiatives. There are 47 initiatives being delivered in New South Wales, 26 in Victoria, 20 in Queensland, 21 in Western Australia, 70 in South Australia, four in Tasmania, 11 in the Australian Capital Territory and 28 in the Northern Territory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2015-16, specialist homelessness services agencies provided support to an estimated 279,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met decreased between 2012-13 and 2015-16. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figures show that clients experiencing family or domestic violence, as a proportion of all specialist homelessness services clients, has increased. However, the proportion of young people presenting alone has decreased since 2012-13. </t>
+    <t xml:space="preserve">Under the 2017-18 Transitional NPAH, more than 700 homelessness services are being delivered across Australia through over 200 homelessness initiatives. There are 44 initiatives being delivered in New South Wales, 26 in Victoria, 19 in Queensland, 23 in Western Australia, 69 in South Australia, three in Tasmania, nine in the Australian Capital Territory and 14 in the Northern Territory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent data from the Specialist Homelessness Services Collection (SHSC) shows that in 2016-17, specialist homelessness services agencies provided support to an estimated 288,000 people, nationwide. Nationally, the proportion of SHS clients whose needs for accommodation services were met decreased between 2012-13 and 2016-17. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of young people presenting alone has decreased since 2012-13. However, clients experiencing family or domestic violence as a proportion of all specialist homelessness services clients has increased.</t>
   </si>
   <si>
     <t xml:space="preserve">If there are increases in the proportion of people who have experienced domestic or family violence, or in young people presenting alone, this is most likely a reflection of increased need or from changes to services. These proportions could be expected to decrease in the long term as preventative strategies are implemented.</t>
@@ -184,13 +154,13 @@
     <t xml:space="preserve">The number of initiatives delivered does not necessarily provide an indication of the scale, reach and effectiveness of services.</t>
   </si>
   <si>
-    <t xml:space="preserve">That a proportion of young clients presenting alone also experienced domestic and family violence. </t>
+    <t xml:space="preserve">A proportion of young clients presenting alone also experienced domestic and family violence. </t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection, AIHW Specialist Homelessness Services Collection Annual report 2015-16 and Report on Government Services 2017</t>
+    <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection; AIHW Specialist Homelessness Services Collection Annual report 2016-17; SCRGSP 2018, Report on Government Services 2018, table 19A.7</t>
   </si>
 </sst>
 </file>
@@ -202,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,97 +196,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="13.45"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,8 +229,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,68 +252,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -446,7 +288,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,69 +312,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,23 +334,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,70 +386,62 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -643,7 +453,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -659,7 +469,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -686,24 +496,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +522,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -746,7 +552,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -784,7 +590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -822,7 +628,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -860,7 +666,7 @@
         <v>31.8908753447311</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
@@ -898,7 +704,7 @@
         <v>18.4585859859986</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
@@ -936,7 +742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
@@ -974,7 +780,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +818,7 @@
         <v>33.3753934524009</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +856,7 @@
         <v>17.4856447698144</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
@@ -1126,7 +932,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +970,7 @@
         <v>36.1222621063431</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1008,7 @@
         <v>16.3422284440929</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1046,7 @@
         <v>71.2710381470523</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1084,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>18</v>
       </c>
@@ -1316,14 +1122,14 @@
         <v>37.8296967005258</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8" t="n">
@@ -1352,6 +1158,158 @@
       </c>
       <c r="L19" s="8" t="n">
         <v>15.4604650496425</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="L20" s="12" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>93</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="K21" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>34.643263284871</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>45.5303501508701</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>34.5863227325872</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>44.1310132117663</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>36.0743115569296</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>29.1522983982446</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>34.5743717126885</v>
+      </c>
+      <c r="K22" s="14" t="n">
+        <v>50.5423974110696</v>
+      </c>
+      <c r="L22" s="14" t="n">
+        <v>39.8085121098553</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>18.7010164979254</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>12.7545158511841</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>11.2927099111826</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>11.5609911181693</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>19.904410775962</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>15.1885133329579</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>20.2141599596193</v>
+      </c>
+      <c r="K23" s="14" t="n">
+        <v>11.699830882002</v>
+      </c>
+      <c r="L23" s="14" t="n">
+        <v>14.6148863121087</v>
       </c>
     </row>
   </sheetData>
@@ -1373,199 +1331,165 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="58.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="9" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+    <row r="1" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="E3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>22</v>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1586,102 +1510,102 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
+    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
+      <c r="B10" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
-        <v>41</v>
+      <c r="B11" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="15" t="s">
         <v>44</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection; AIHW Specialist Homelessness Services Collection Annual report 2016-17; SCRGSP 2018, Report on Government Services 2018, tables 19A.7 and 19A.11; </t>
+    <t xml:space="preserve">AIHW (unpublished) Specialist Homelessness Services Collection; AIHW Specialist Homelessness Services Collection Annual report 2016-17; SCRGSP 2018, Report on Government Services 2018, tables 19A.7 and 19A.11.</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,14 +355,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,10 +392,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,7 +494,7 @@
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.33"/>
   </cols>
   <sheetData>
@@ -1124,13 +1112,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7" t="n">
@@ -1162,154 +1150,154 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10" t="n">
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="n">
         <v>62.8</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="8" t="n">
         <v>64.4</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="8" t="n">
         <v>74.1</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="8" t="n">
         <v>86.1</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="8" t="n">
         <v>84.4</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="8" t="n">
         <v>74.5</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="8" t="n">
         <v>67.4</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="8" t="n">
         <v>94.4</v>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="9" t="n">
         <v>69.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12" t="n">
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10" t="n">
         <v>96.4</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="10" t="n">
         <v>93.1</v>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F21" s="10" t="n">
         <v>97.5</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" s="10" t="n">
         <v>99.4</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" s="10" t="n">
         <v>96</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="10" t="n">
         <v>94.5</v>
       </c>
-      <c r="K21" s="12" t="n">
+      <c r="K21" s="10" t="n">
         <v>99.4</v>
       </c>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="10" t="n">
         <v>95.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="n">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="n">
         <v>34.643263284871</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="11" t="n">
         <v>45.5303501508701</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="11" t="n">
         <v>34.5863227325872</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="11" t="n">
         <v>44.1310132117663</v>
       </c>
-      <c r="H22" s="13" t="n">
+      <c r="H22" s="11" t="n">
         <v>36.0743115569296</v>
       </c>
-      <c r="I22" s="13" t="n">
+      <c r="I22" s="11" t="n">
         <v>29.1522983982446</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="11" t="n">
         <v>34.5743717126885</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="11" t="n">
         <v>50.5423974110696</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="11" t="n">
         <v>39.8085121098553</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="n">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11" t="n">
         <v>18.7010164979254</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="11" t="n">
         <v>12.7545158511841</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="11" t="n">
         <v>11.2927099111826</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="11" t="n">
         <v>11.5609911181693</v>
       </c>
-      <c r="H23" s="13" t="n">
+      <c r="H23" s="11" t="n">
         <v>19.904410775962</v>
       </c>
-      <c r="I23" s="13" t="n">
+      <c r="I23" s="11" t="n">
         <v>15.1885133329579</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="11" t="n">
         <v>20.2141599596193</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="11" t="n">
         <v>11.699830882002</v>
       </c>
-      <c r="L23" s="13" t="n">
+      <c r="L23" s="11" t="n">
         <v>14.6148863121087</v>
       </c>
     </row>
@@ -1340,8 +1328,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="14" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="12" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
@@ -1353,143 +1341,143 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1512,7 +1500,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1526,7 +1514,7 @@
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1558,22 +1546,22 @@
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1581,23 +1569,23 @@
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1605,7 +1593,7 @@
       <c r="A13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>45</v>
       </c>
     </row>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -148,7 +148,7 @@
     <t xml:space="preserve">NPAH funded agencies were required to participate in the SHSC administered by the Australian Institute of Health and Welfare – although some were granted an exemption by the Commonwealth.</t>
   </si>
   <si>
-    <t xml:space="preserve">The SHSC does not report on NPAH initiatives exclusively, it also includes services funded under the National Affordable Housing Agreement.</t>
+    <t xml:space="preserve">Published SHSC data includes data from NPAH initiatives and services funded under NAHA.</t>
   </si>
   <si>
     <t xml:space="preserve">The number of initiatives delivered does not necessarily provide an indication of the scale, reach and effectiveness of services.</t>
@@ -322,7 +322,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -405,6 +405,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1500,7 +1504,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1573,9 +1577,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
+++ b/dashboard_loader/housing_homelessness_npa_uploader/housing_homelessness_npa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t xml:space="preserve">Percentage of specialist homelessness services clients with needs met for accommodation and other services; and experiencing family and domestic violence, and young people (15-24 years old) presenting alone 2012-13 to 2016-17 </t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">The proportion of young people presenting alone as a proportion of all specialist homelessness services clients has decreased since 2012-13. However, clients experiencing family or domestic violence as a proportion of all specialist homelessness services clients has increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If there are increases in the proportion of people who have experienced domestic or family violence, or in young people presenting alone, this is most likely a reflection of increased need or from changes to services. These proportions could be expected to decrease in the long term as preventative strategies are implemented.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -322,7 +319,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,10 +397,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1501,10 +1494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1564,22 +1557,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="s">
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1588,19 +1581,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
